--- a/data/aux_ruteo.xlsx
+++ b/data/aux_ruteo.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/556aea8b712e03a7/Escritorio/Python/rutas-oc/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/556aea8b712e03a7/Escritorio/Python/MyRoutes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{26272E30-4337-46C6-9BEE-AFB2143EA67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0038FE76-E61E-491E-BF4E-585B45773D4F}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{F360D05B-D307-46E6-B3EE-D380858A22AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B92D610F-98EB-4E5C-A504-7829B406B3BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BCF13AC3-EC6F-4885-8099-A71BFC474135}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BCF13AC3-EC6F-4885-8099-A71BFC474135}"/>
   </bookViews>
   <sheets>
     <sheet name="pup" sheetId="1" r:id="rId1"/>
     <sheet name="hoja_ruta" sheetId="4" r:id="rId2"/>
-    <sheet name="picking" sheetId="5" r:id="rId3"/>
-    <sheet name="zonas" sheetId="6" r:id="rId4"/>
-    <sheet name="product_id" sheetId="3" r:id="rId5"/>
-    <sheet name="status" sheetId="2" r:id="rId6"/>
+    <sheet name="order" sheetId="7" r:id="rId3"/>
+    <sheet name="picking" sheetId="5" r:id="rId4"/>
+    <sheet name="zonas" sheetId="6" r:id="rId5"/>
+    <sheet name="product_id" sheetId="3" r:id="rId6"/>
+    <sheet name="status" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_Encargados">pup!#REF!</definedName>
     <definedName name="_Estados">pup!#REF!</definedName>
     <definedName name="_Files">pup!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hoja_ruta!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">pup!$A$1:$L$21</definedName>
     <definedName name="_PickupPoint">pup!$A$1:$K$50</definedName>
     <definedName name="_Zonas">pup!#REF!</definedName>
   </definedNames>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="308">
   <si>
     <t>Pickup_point</t>
   </si>
@@ -590,15 +593,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>sum(qty_ordered)</t>
-  </si>
-  <si>
-    <t>Tabla con tiempos por zona</t>
-  </si>
-  <si>
-    <t>hasta_hora</t>
-  </si>
-  <si>
     <t>Pedido_sucursal</t>
   </si>
   <si>
@@ -831,6 +825,156 @@
   </si>
   <si>
     <t>nombre</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>min_parada</t>
+  </si>
+  <si>
+    <t>qty_ordered</t>
+  </si>
+  <si>
+    <t>fecha_del_pedido</t>
+  </si>
+  <si>
+    <t>Metodo_de_envio</t>
+  </si>
+  <si>
+    <t>Envio_guia</t>
+  </si>
+  <si>
+    <t>Envio_Despachado_el</t>
+  </si>
+  <si>
+    <t>Fecha_de_entrega_solicitada</t>
+  </si>
+  <si>
+    <t>Fecha_de_entrega</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Cliente_DNI</t>
+  </si>
+  <si>
+    <t>Cliente_genero</t>
+  </si>
+  <si>
+    <t>razon_social</t>
+  </si>
+  <si>
+    <t>Cliente_CUIT</t>
+  </si>
+  <si>
+    <t>Producto_pedido_id</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>Producto_pedido_brand</t>
+  </si>
+  <si>
+    <t>product_sku</t>
+  </si>
+  <si>
+    <t>base_original_price</t>
+  </si>
+  <si>
+    <t>row_total</t>
+  </si>
+  <si>
+    <t>Producto_pedido_recibido</t>
+  </si>
+  <si>
+    <t>payment_gateway</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>payment_card</t>
+  </si>
+  <si>
+    <t>Pago_autorizacion</t>
+  </si>
+  <si>
+    <t>Pago_description</t>
+  </si>
+  <si>
+    <t>Pago_ticket</t>
+  </si>
+  <si>
+    <t>Pago_autorizado</t>
+  </si>
+  <si>
+    <t>Pago_monto</t>
+  </si>
+  <si>
+    <t>cupon_code</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>order_related</t>
+  </si>
+  <si>
+    <t>Fecha_PuP</t>
+  </si>
+  <si>
+    <t>Fecha_Maxima_Retiro_PuP</t>
+  </si>
+  <si>
+    <t>NroFactura</t>
+  </si>
+  <si>
+    <t>Dir_Verificada</t>
+  </si>
+  <si>
+    <t>Direccion_de_Facturacion</t>
+  </si>
+  <si>
+    <t>Comuna_de_Facturacion</t>
+  </si>
+  <si>
+    <t>Region_de_Facturacion</t>
+  </si>
+  <si>
+    <t>Giro</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>barrio</t>
+  </si>
+  <si>
+    <t>Calle1</t>
+  </si>
+  <si>
+    <t>Calle2</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>data_custom</t>
   </si>
 </sst>
 </file>
@@ -861,7 +1005,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1241,10 +1384,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAAD1B1-86FB-4DF3-8A46-2429B496313C}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1259,10 +1402,11 @@
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,8 +1440,11 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1331,8 +1478,11 @@
       <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1366,8 +1516,11 @@
       <c r="K3" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1401,8 +1554,11 @@
       <c r="K4" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1436,8 +1592,11 @@
       <c r="K5" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1471,8 +1630,11 @@
       <c r="K6" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -1506,8 +1668,11 @@
       <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -1541,8 +1706,11 @@
       <c r="K8" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1576,8 +1744,11 @@
       <c r="K9" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
@@ -1611,8 +1782,11 @@
       <c r="K10" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -1646,8 +1820,11 @@
       <c r="K11" s="7" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
@@ -1681,8 +1858,11 @@
       <c r="K12" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>82</v>
       </c>
@@ -1716,8 +1896,11 @@
       <c r="K13" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>86</v>
       </c>
@@ -1751,8 +1934,11 @@
       <c r="K14" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>91</v>
       </c>
@@ -1786,8 +1972,11 @@
       <c r="K15" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>94</v>
       </c>
@@ -1821,8 +2010,11 @@
       <c r="K16" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
@@ -1856,8 +2048,11 @@
       <c r="K17" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>99</v>
       </c>
@@ -1891,8 +2086,11 @@
       <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>101</v>
       </c>
@@ -1926,8 +2124,11 @@
       <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>103</v>
       </c>
@@ -1961,8 +2162,11 @@
       <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>105</v>
       </c>
@@ -1996,8 +2200,11 @@
       <c r="K21" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2009,8 +2216,9 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2022,8 +2230,9 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2035,8 +2244,9 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2048,8 +2258,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2061,8 +2272,9 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2074,8 +2286,9 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2087,8 +2300,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2100,8 +2314,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2113,8 +2328,9 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2126,8 +2342,9 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2139,8 +2356,9 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2152,8 +2370,9 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2165,8 +2384,9 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2178,8 +2398,9 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2191,8 +2412,9 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2204,8 +2426,9 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2217,8 +2440,9 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2230,8 +2454,9 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2243,8 +2468,9 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2256,8 +2482,9 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2269,8 +2496,9 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2282,8 +2510,9 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2295,8 +2524,9 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2308,8 +2538,9 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2321,8 +2552,9 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2334,8 +2566,9 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2347,8 +2580,9 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2360,8 +2594,9 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2373,8 +2608,9 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2386,8 +2622,9 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2399,8 +2636,9 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2412,8 +2650,9 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2425,8 +2664,9 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2438,8 +2678,9 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2451,8 +2692,9 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2464,8 +2706,9 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2477,8 +2720,9 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2490,8 +2734,9 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2503,8 +2748,9 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2516,8 +2762,9 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2529,8 +2776,9 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2542,8 +2790,9 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2555,8 +2804,9 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2568,8 +2818,9 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2581,8 +2832,9 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2594,8 +2846,9 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2607,8 +2860,9 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2620,8 +2874,9 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2633,8 +2888,9 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2646,8 +2902,9 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2659,8 +2916,9 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2672,8 +2930,9 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2685,8 +2944,9 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2698,8 +2958,9 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2711,8 +2972,9 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2724,8 +2986,9 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2737,8 +3000,9 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2750,8 +3014,9 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2763,8 +3028,9 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2776,8 +3042,9 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2789,8 +3056,9 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2802,8 +3070,9 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2815,8 +3084,9 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2828,8 +3098,9 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2841,8 +3112,9 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2854,8 +3126,9 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2867,8 +3140,9 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2880,8 +3154,9 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2893,8 +3168,9 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2906,8 +3182,9 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2919,8 +3196,9 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2932,8 +3210,9 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2945,8 +3224,9 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2958,8 +3238,9 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2971,8 +3252,9 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2984,8 +3266,9 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2997,8 +3280,9 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3010,8 +3294,9 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3023,8 +3308,9 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3036,8 +3322,9 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3049,8 +3336,9 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3062,8 +3350,9 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3075,8 +3364,9 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3088,8 +3378,9 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3101,8 +3392,9 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3114,8 +3406,9 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3127,8 +3420,9 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3140,8 +3434,9 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3153,8 +3448,9 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3166,8 +3462,9 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3179,8 +3476,9 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3192,8 +3490,9 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3205,8 +3504,9 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3218,8 +3518,9 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3231,8 +3532,9 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3244,8 +3546,9 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3257,8 +3560,9 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3270,8 +3574,9 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3283,8 +3588,9 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3296,8 +3602,9 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3309,8 +3616,9 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3322,8 +3630,9 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3335,8 +3644,9 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L124" s="2"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3348,8 +3658,9 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3361,8 +3672,9 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3374,8 +3686,9 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3387,8 +3700,9 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3400,8 +3714,9 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3413,8 +3728,9 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3426,8 +3742,9 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3439,8 +3756,9 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3452,8 +3770,9 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3465,8 +3784,9 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L134" s="2"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3478,8 +3798,9 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3491,8 +3812,9 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L136" s="2"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3504,8 +3826,9 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L137" s="2"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -3517,8 +3840,9 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L138" s="2"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3530,8 +3854,9 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -3543,8 +3868,9 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3556,8 +3882,9 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3569,8 +3896,9 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3582,8 +3910,9 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3595,8 +3924,9 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3608,8 +3938,9 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3621,8 +3952,9 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3634,8 +3966,9 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3647,8 +3980,9 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3660,8 +3994,9 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3673,8 +4008,9 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3686,8 +4022,9 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3699,8 +4036,9 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3712,8 +4050,9 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3725,8 +4064,9 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3738,8 +4078,9 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3751,8 +4092,9 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3764,8 +4106,9 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3777,8 +4120,9 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3790,8 +4134,9 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3803,8 +4148,9 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3816,8 +4162,9 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3829,8 +4176,9 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3842,8 +4190,9 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3855,8 +4204,9 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3868,8 +4218,9 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3881,8 +4232,9 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3894,8 +4246,9 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3907,8 +4260,9 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3920,8 +4274,9 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3933,8 +4288,9 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3946,8 +4302,9 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3959,8 +4316,9 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3972,8 +4330,9 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L173" s="2"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3985,8 +4344,9 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3998,8 +4358,9 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4011,8 +4372,9 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4024,8 +4386,9 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4037,8 +4400,9 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4050,8 +4414,9 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4063,8 +4428,9 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4076,8 +4442,9 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4089,8 +4456,9 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4102,8 +4470,9 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L183" s="2"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4115,8 +4484,9 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4128,8 +4498,9 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L185" s="2"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4141,8 +4512,9 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L186" s="2"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4154,8 +4526,9 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4167,8 +4540,9 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4180,8 +4554,9 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4193,8 +4568,9 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L190" s="2"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4206,8 +4582,9 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L191" s="2"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4219,8 +4596,9 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L192" s="2"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4232,8 +4610,9 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L193" s="2"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4245,8 +4624,9 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4258,8 +4638,9 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4271,8 +4652,9 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4284,6 +4666,7 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4295,14 +4678,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD44079-F227-4CC9-98CC-910E4F3976A0}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -4406,7 +4789,7 @@
         <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4424,7 +4807,7 @@
         <v>163</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4440,7 +4823,7 @@
         <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4458,7 +4841,7 @@
         <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4487,7 +4870,7 @@
         <v>170</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4495,12 +4878,15 @@
         <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>172</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4515,6 +4901,552 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940C21A8-5DB5-4AED-ADF3-47E01EDD347C}">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F5CF2F-1F3F-4A08-A8BF-315264A4D549}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -4526,7 +5458,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -4554,7 +5486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B9890A-CF62-4567-A244-486DEC67E631}">
   <dimension ref="A1:E81"/>
   <sheetViews>
@@ -4576,16 +5508,16 @@
         <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4599,7 +5531,7 @@
         <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -4616,7 +5548,7 @@
         <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -4633,7 +5565,7 @@
         <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -4647,10 +5579,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -4664,10 +5596,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -4684,7 +5616,7 @@
         <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -4698,10 +5630,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -4715,10 +5647,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4732,10 +5664,10 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -4749,10 +5681,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -4766,10 +5698,10 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -4783,10 +5715,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -4800,10 +5732,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -4817,10 +5749,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -4834,10 +5766,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -4851,10 +5783,10 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E17">
         <v>7</v>
@@ -4868,10 +5800,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -4885,10 +5817,10 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -4902,10 +5834,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E20">
         <v>7</v>
@@ -4919,10 +5851,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -4936,10 +5868,10 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E22">
         <v>7</v>
@@ -4956,7 +5888,7 @@
         <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -4973,7 +5905,7 @@
         <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -4987,10 +5919,10 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -5004,10 +5936,10 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -5024,7 +5956,7 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -5038,10 +5970,10 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -5058,7 +5990,7 @@
         <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -5075,7 +6007,7 @@
         <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -5089,10 +6021,10 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E31">
         <v>7</v>
@@ -5106,10 +6038,10 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -5123,10 +6055,10 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -5140,10 +6072,10 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -5157,10 +6089,10 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -5174,10 +6106,10 @@
         <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -5191,10 +6123,10 @@
         <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E37">
         <v>7</v>
@@ -5208,10 +6140,10 @@
         <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -5225,10 +6157,10 @@
         <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -5245,7 +6177,7 @@
         <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E40">
         <v>10</v>
@@ -5262,7 +6194,7 @@
         <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -5279,7 +6211,7 @@
         <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -5293,10 +6225,10 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E43">
         <v>10</v>
@@ -5310,10 +6242,10 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D44" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -5327,10 +6259,10 @@
         <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -5344,10 +6276,10 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -5361,10 +6293,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -5378,10 +6310,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -5395,10 +6327,10 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E49">
         <v>10</v>
@@ -5412,10 +6344,10 @@
         <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -5429,10 +6361,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E51">
         <v>10</v>
@@ -5446,10 +6378,10 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -5463,10 +6395,10 @@
         <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -5480,10 +6412,10 @@
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -5497,10 +6429,10 @@
         <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55">
         <v>10</v>
@@ -5514,10 +6446,10 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D56" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E56">
         <v>10</v>
@@ -5531,10 +6463,10 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E57">
         <v>10</v>
@@ -5548,10 +6480,10 @@
         <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E58">
         <v>10</v>
@@ -5565,10 +6497,10 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E59">
         <v>10</v>
@@ -5582,10 +6514,10 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -5599,10 +6531,10 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E61">
         <v>10</v>
@@ -5616,10 +6548,10 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E62">
         <v>10</v>
@@ -5633,10 +6565,10 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E63">
         <v>10</v>
@@ -5650,10 +6582,10 @@
         <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D64" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -5667,10 +6599,10 @@
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E65">
         <v>10</v>
@@ -5684,10 +6616,10 @@
         <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E66">
         <v>10</v>
@@ -5701,10 +6633,10 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -5718,10 +6650,10 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E68">
         <v>10</v>
@@ -5738,7 +6670,7 @@
         <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E69">
         <v>10</v>
@@ -5755,7 +6687,7 @@
         <v>143</v>
       </c>
       <c r="D70" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E70">
         <v>10</v>
@@ -5769,10 +6701,10 @@
         <v>89</v>
       </c>
       <c r="C71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E71">
         <v>10</v>
@@ -5786,10 +6718,10 @@
         <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E72">
         <v>10</v>
@@ -5803,10 +6735,10 @@
         <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E73">
         <v>10</v>
@@ -5820,10 +6752,10 @@
         <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E74">
         <v>10</v>
@@ -5837,10 +6769,10 @@
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E75">
         <v>10</v>
@@ -5854,10 +6786,10 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E76">
         <v>10</v>
@@ -5871,10 +6803,10 @@
         <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E77">
         <v>10</v>
@@ -5888,10 +6820,10 @@
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E78">
         <v>10</v>
@@ -5905,10 +6837,10 @@
         <v>89</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E79">
         <v>10</v>
@@ -5922,10 +6854,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E80">
         <v>10</v>
@@ -5939,10 +6871,10 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E81">
         <v>10</v>
@@ -5953,7 +6885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5386EA-DC14-4C04-A2F9-0ED3AA9C9FC8}">
   <dimension ref="A1:A20"/>
   <sheetViews>
@@ -6069,7 +7001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FF88A3-AD5C-4FB6-89C5-99C9B600AA4D}">
   <dimension ref="A1:B16"/>
   <sheetViews>
